--- a/figs/accuracy_summary.xlsx
+++ b/figs/accuracy_summary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="1200" windowWidth="23980" windowHeight="13080" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="5220" yWindow="1200" windowWidth="23980" windowHeight="13080" tabRatio="500" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="basic_svm" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="19">
   <si>
     <t>radial</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Pool5</t>
+  </si>
+  <si>
+    <t>newFc7</t>
   </si>
 </sst>
 </file>
@@ -1300,7 +1303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1441,9 +1444,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1475,7 +1480,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C10" si="0">1-B3</f>
+        <f t="shared" ref="C3:C12" si="0">1-B3</f>
         <v>0.96199999999999997</v>
       </c>
     </row>
@@ -1517,50 +1522,74 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>1.2500000000000001E-2</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>0.98750000000000004</v>
+        <v>0.99050000000000005</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>7.4999999999999997E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>0.99250000000000005</v>
+        <v>0.98750000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>7.0000000000000001E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>0.99299999999999999</v>
+        <v>0.99250000000000005</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>9.4999999999999998E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>0.99050000000000005</v>
+        <v>0.99299999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>2.7E-2</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0.97299999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>0.99299999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/figs/accuracy_summary.xlsx
+++ b/figs/accuracy_summary.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26207"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiangrainbow/Documents/Columbia/ADS/Fall2016-proj3-grp12/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiwenyou/Desktop/Fall2016-proj3-grp12/figs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="1200" windowWidth="23980" windowHeight="13080" tabRatio="500" activeTab="8"/>
+    <workbookView xWindow="1620" yWindow="1200" windowWidth="23980" windowHeight="13080" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="basic_svm" sheetId="1" r:id="rId1"/>
@@ -22,8 +22,11 @@
     <sheet name="1600 vs 400" sheetId="8" r:id="rId8"/>
     <sheet name="2000 vs test 2000" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -95,11 +98,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -128,7 +137,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -409,9 +418,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,7 +428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2">
         <v>0.01</v>
       </c>
@@ -448,7 +457,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1E-4</v>
       </c>
@@ -480,7 +489,7 @@
         <v>0.34599999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1E-3</v>
       </c>
@@ -497,7 +506,7 @@
         <v>0.35249999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>0.01</v>
       </c>
@@ -530,6 +539,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -542,17 +552,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="37.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -560,7 +570,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -568,7 +578,7 @@
         <v>0.20549999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -577,6 +587,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -589,17 +600,17 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="37.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -607,7 +618,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -615,7 +626,7 @@
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -624,6 +635,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -636,17 +648,17 @@
       <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="37.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -654,17 +666,18 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -677,17 +690,17 @@
       <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="37.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -695,17 +708,18 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -718,17 +732,17 @@
       <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="37.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -736,17 +750,18 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -759,17 +774,17 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="37.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -777,17 +792,17 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -795,7 +810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7">
         <v>200</v>
       </c>
@@ -815,7 +830,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1E-3</v>
       </c>
@@ -838,7 +853,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>0.01</v>
       </c>
@@ -861,7 +876,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>0.1</v>
       </c>
@@ -884,7 +899,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -892,7 +907,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B13">
         <v>200</v>
       </c>
@@ -912,7 +927,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>1E-3</v>
       </c>
@@ -935,7 +950,7 @@
         <v>3.6499999999999998E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>0.01</v>
       </c>
@@ -958,7 +973,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>0.1</v>
       </c>
@@ -981,7 +996,7 @@
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -989,7 +1004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B19">
         <v>200</v>
       </c>
@@ -1009,7 +1024,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>1E-3</v>
       </c>
@@ -1032,7 +1047,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>0.01</v>
       </c>
@@ -1055,7 +1070,7 @@
         <v>3.3500000000000002E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>0.1</v>
       </c>
@@ -1078,7 +1093,7 @@
         <v>3.4500000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1086,7 +1101,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B25">
         <v>200</v>
       </c>
@@ -1106,7 +1121,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>1E-3</v>
       </c>
@@ -1123,7 +1138,7 @@
         <v>3.85E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>0.01</v>
       </c>
@@ -1140,7 +1155,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>0.1</v>
       </c>
@@ -1154,7 +1169,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -1162,7 +1177,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B32">
         <v>200</v>
       </c>
@@ -1182,7 +1197,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>1E-3</v>
       </c>
@@ -1199,7 +1214,7 @@
         <v>3.85E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>0.01</v>
       </c>
@@ -1216,7 +1231,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>0.1</v>
       </c>
@@ -1230,7 +1245,7 @@
         <v>3.6499999999999998E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -1238,7 +1253,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B38">
         <v>200</v>
       </c>
@@ -1258,7 +1273,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>1E-3</v>
       </c>
@@ -1272,7 +1287,7 @@
         <v>3.85E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>0.01</v>
       </c>
@@ -1283,7 +1298,7 @@
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>0.1</v>
       </c>
@@ -1295,6 +1310,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1303,13 +1319,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -1317,7 +1333,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1325,11 +1341,10 @@
         <v>0.1225</v>
       </c>
       <c r="C2">
-        <f>1-B2</f>
-        <v>0.87749999999999995</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.83749999999999991</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1337,11 +1352,10 @@
         <v>0.08</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C11" si="0">1-B3</f>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1349,11 +1363,10 @@
         <v>6.25E-2</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
-        <v>0.9375</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.89749999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1361,11 +1374,10 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
-        <v>0.95499999999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.91499999999999992</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1373,11 +1385,10 @@
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
-        <v>0.96250000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.92249999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1385,11 +1396,10 @@
         <v>0.03</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.92999999999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1397,11 +1407,10 @@
         <v>2.75E-2</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
-        <v>0.97250000000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.9325</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1409,11 +1418,10 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
-        <v>0.98499999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.94499999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1421,11 +1429,10 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
-        <v>0.97499999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.93499999999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1433,11 +1440,11 @@
         <v>0.05</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.90999999999999992</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1446,13 +1453,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>8</v>
       </c>
@@ -1460,7 +1467,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1468,11 +1475,10 @@
         <v>0.06</v>
       </c>
       <c r="C2">
-        <f>1-B2</f>
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1480,11 +1486,10 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C12" si="0">1-B3</f>
-        <v>0.96199999999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.92199999999999993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1492,11 +1497,10 @@
         <v>0.03</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.92999999999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1504,11 +1508,10 @@
         <v>0.02</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1516,11 +1519,10 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
-        <v>0.98199999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.94199999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1528,11 +1530,10 @@
         <v>9.4999999999999998E-3</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
-        <v>0.99050000000000005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.95050000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1540,11 +1541,10 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
-        <v>0.98750000000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.94750000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1552,11 +1552,10 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
-        <v>0.99250000000000005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.95250000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1564,11 +1563,10 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
-        <v>0.99299999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.95299999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1576,11 +1574,10 @@
         <v>2.7E-2</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
-        <v>0.97299999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.93299999999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1588,11 +1585,11 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
-        <v>0.99299999999999999</v>
+        <v>0.95299999999999996</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>